--- a/donators.xlsx
+++ b/donators.xlsx
@@ -344,17 +344,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,31 +394,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,9 +424,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,43 +455,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -481,6 +471,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -488,22 +486,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +511,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,85 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,73 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,6 +729,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -747,21 +755,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,46 +807,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,105 +861,102 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,18 +1307,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="D1:D100 F12"/>
+      <selection activeCell="E1" sqref="E1:E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="64.25" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1335,8 +1332,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1">
+        <v>38279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1349,8 +1349,11 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>36530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1363,8 +1366,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>36707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1377,8 +1383,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>40912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1391,8 +1400,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>38054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1405,8 +1417,11 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>41198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1419,8 +1434,11 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>37949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1433,8 +1451,11 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>38331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1447,8 +1468,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>40985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1461,8 +1485,11 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>37882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1475,8 +1502,11 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>38910</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1489,8 +1519,11 @@
       <c r="D12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>41261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1503,8 +1536,11 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>39361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1517,8 +1553,11 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>39958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1531,8 +1570,11 @@
       <c r="D15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>38478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1545,8 +1587,11 @@
       <c r="D16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>37489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1559,8 +1604,11 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>40667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1573,8 +1621,11 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>40333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1587,8 +1638,11 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>38292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1601,8 +1655,11 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>36718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1615,8 +1672,11 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>40912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1629,8 +1689,11 @@
       <c r="D22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>37321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1643,8 +1706,11 @@
       <c r="D23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>39518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1657,8 +1723,11 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>37968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1671,8 +1740,11 @@
       <c r="D25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1">
+        <v>39864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1685,8 +1757,11 @@
       <c r="D26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1">
+        <v>38482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1699,8 +1774,11 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1">
+        <v>40369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1713,8 +1791,11 @@
       <c r="D28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1">
+        <v>37636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1727,8 +1808,11 @@
       <c r="D29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1">
+        <v>39804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1741,8 +1825,11 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1">
+        <v>37017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1755,8 +1842,11 @@
       <c r="D31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1">
+        <v>38651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1769,8 +1859,11 @@
       <c r="D32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1783,8 +1876,11 @@
       <c r="D33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1">
+        <v>37281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1797,8 +1893,11 @@
       <c r="D34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1">
+        <v>38493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1811,8 +1910,11 @@
       <c r="D35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="1">
+        <v>37535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1825,8 +1927,11 @@
       <c r="D36" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="1">
+        <v>39369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1839,8 +1944,11 @@
       <c r="D37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="1">
+        <v>36640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1961,11 @@
       <c r="D38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="1">
+        <v>37889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1867,8 +1978,11 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="1">
+        <v>40475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1881,8 +1995,11 @@
       <c r="D40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="1">
+        <v>39925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1895,8 +2012,11 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="1">
+        <v>37173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1909,8 +2029,11 @@
       <c r="D42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="1">
+        <v>36654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1923,8 +2046,11 @@
       <c r="D43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="1">
+        <v>39613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="D44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="1">
+        <v>40201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1951,8 +2080,11 @@
       <c r="D45" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="1">
+        <v>37559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1965,8 +2097,11 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="1">
+        <v>36726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1979,8 +2114,11 @@
       <c r="D47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="1">
+        <v>39510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1993,8 +2131,11 @@
       <c r="D48" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="1">
+        <v>39253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2007,8 +2148,11 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="1">
+        <v>39123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2021,8 +2165,11 @@
       <c r="D50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="1">
+        <v>37199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2035,8 +2182,11 @@
       <c r="D51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="1">
+        <v>37877</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2049,8 +2199,11 @@
       <c r="D52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="1">
+        <v>37199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2063,8 +2216,11 @@
       <c r="D53" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="1">
+        <v>41152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2077,8 +2233,11 @@
       <c r="D54" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="1">
+        <v>39216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2091,8 +2250,11 @@
       <c r="D55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="1">
+        <v>40551</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2105,8 +2267,11 @@
       <c r="D56" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="1">
+        <v>40542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2119,8 +2284,11 @@
       <c r="D57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="1">
+        <v>39208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2133,8 +2301,11 @@
       <c r="D58" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="1">
+        <v>40125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2147,8 +2318,11 @@
       <c r="D59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="1">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2161,8 +2335,11 @@
       <c r="D60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="1">
+        <v>39380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2175,8 +2352,11 @@
       <c r="D61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="1">
+        <v>37356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2189,8 +2369,11 @@
       <c r="D62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="1">
+        <v>39962</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2203,8 +2386,11 @@
       <c r="D63" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="1">
+        <v>40680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2217,8 +2403,11 @@
       <c r="D64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="1">
+        <v>40653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2231,8 +2420,11 @@
       <c r="D65" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="1">
+        <v>36938</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2245,8 +2437,11 @@
       <c r="D66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="1">
+        <v>37805</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2259,8 +2454,11 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="1">
+        <v>39653</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2273,8 +2471,11 @@
       <c r="D68" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="1">
+        <v>40347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2287,8 +2488,11 @@
       <c r="D69" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="1">
+        <v>37052</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2301,8 +2505,11 @@
       <c r="D70" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="1">
+        <v>40510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2315,8 +2522,11 @@
       <c r="D71" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="1">
+        <v>36778</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2329,8 +2539,11 @@
       <c r="D72" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="1">
+        <v>38742</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2343,8 +2556,11 @@
       <c r="D73" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="1">
+        <v>36814</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2357,8 +2573,11 @@
       <c r="D74" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="1">
+        <v>36553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2371,8 +2590,11 @@
       <c r="D75" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="1">
+        <v>38300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2385,8 +2607,11 @@
       <c r="D76" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="1">
+        <v>40492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2399,8 +2624,11 @@
       <c r="D77" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="1">
+        <v>39950</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2413,8 +2641,11 @@
       <c r="D78" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="1">
+        <v>39321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2427,8 +2658,11 @@
       <c r="D79" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="1">
+        <v>38051</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2441,8 +2675,11 @@
       <c r="D80" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="1">
+        <v>38081</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2455,8 +2692,11 @@
       <c r="D81" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="1">
+        <v>39317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2469,8 +2709,11 @@
       <c r="D82" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="1">
+        <v>37765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2483,8 +2726,11 @@
       <c r="D83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="1">
+        <v>36814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -2497,8 +2743,11 @@
       <c r="D84" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="1">
+        <v>38397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2511,8 +2760,11 @@
       <c r="D85" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="1">
+        <v>37408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -2525,8 +2777,11 @@
       <c r="D86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="1">
+        <v>37344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2539,8 +2794,11 @@
       <c r="D87" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" s="1">
+        <v>38178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -2553,8 +2811,11 @@
       <c r="D88" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="1">
+        <v>37761</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2567,8 +2828,11 @@
       <c r="D89" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" s="1">
+        <v>40858</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2581,8 +2845,11 @@
       <c r="D90" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="1">
+        <v>38769</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -2595,8 +2862,11 @@
       <c r="D91" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" s="1">
+        <v>37796</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2609,8 +2879,11 @@
       <c r="D92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" s="1">
+        <v>37469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -2623,8 +2896,11 @@
       <c r="D93" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" s="1">
+        <v>41189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2637,8 +2913,11 @@
       <c r="D94" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="1">
+        <v>40939</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -2651,8 +2930,11 @@
       <c r="D95" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" s="1">
+        <v>38850</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -2665,8 +2947,11 @@
       <c r="D96" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" s="1">
+        <v>40693</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2679,8 +2964,11 @@
       <c r="D97" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" s="1">
+        <v>40922</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2693,8 +2981,11 @@
       <c r="D98" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" s="1">
+        <v>38601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -2707,8 +2998,11 @@
       <c r="D99" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" s="1">
+        <v>36704</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -2720,6 +3014,9 @@
       </c>
       <c r="D100" t="s">
         <v>21</v>
+      </c>
+      <c r="E100" s="1">
+        <v>36788</v>
       </c>
     </row>
   </sheetData>
